--- a/doc/接口文档.xlsx
+++ b/doc/接口文档.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>get /user/all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消报名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建场地信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -300,6 +308,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,8 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -601,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -657,21 +665,21 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -682,13 +690,13 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -699,13 +707,13 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -716,13 +724,13 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -733,13 +741,13 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -786,46 +794,46 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -837,7 +845,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -852,7 +860,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -867,7 +875,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -882,7 +890,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -897,11 +905,9 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -914,7 +920,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -929,9 +935,11 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -944,7 +952,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -959,7 +967,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -973,7 +981,9 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -986,7 +996,9 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1205,14 +1217,40 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F3:F7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/接口文档.xlsx
+++ b/doc/接口文档.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="网关接口" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -311,6 +312,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -318,15 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -665,18 +666,18 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -690,12 +691,12 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
@@ -707,12 +708,12 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
@@ -724,12 +725,12 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
@@ -741,12 +742,12 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1256,4 +1257,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8734F7D-8AB8-473B-A6D7-4A2764BF8C02}">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>